--- a/South Korea/Nelson-Siegel/Gradient Descent/Tables/South Korea.xlsx
+++ b/South Korea/Nelson-Siegel/Gradient Descent/Tables/South Korea.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,10 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -38,12 +45,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -428,7 +453,7 @@
   </sheetPr>
   <dimension ref="A1:CX25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11820,7 +11845,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11839,307 +11864,307 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BX1" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BY1" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="BZ1" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CA1" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CB1" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CC1" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CD1" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CE1" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CF1" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CG1" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CH1" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CI1" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CJ1" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CK1" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CL1" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CM1" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CN1" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CO1" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CP1" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CQ1" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CR1" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CS1" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CT1" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CU1" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CV1" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CW1" s="2" t="n">
         <v>100</v>
       </c>
     </row>
